--- a/1.1.5/Resident Services/TC_MOSIP_11498.xlsx
+++ b/1.1.5/Resident Services/TC_MOSIP_11498.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshit.B\Desktop\1.1.5\rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -50,34 +50,59 @@
     <t>Reviewed</t>
   </si>
   <si>
-    <t>Resident Service_Credentialissuance_01</t>
-  </si>
-  <si>
     <t>Resident Services</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Credential Issuance
-</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
-    <t>Verify the print service with QR code having the best finger</t>
-  </si>
-  <si>
     <t>QR code should have best two fingers</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_01</t>
+  </si>
+  <si>
+    <t>Best two fingers</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best two finger</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_02</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best fingers with having only specific fingers in policy</t>
+  </si>
+  <si>
+    <t>QRcode should have best two fingers based on fingers mentioned in policy</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_03</t>
+  </si>
+  <si>
+    <t>Verify QR code having the best fingers by not giving specific fingers in policy</t>
+  </si>
+  <si>
+    <t>QRcode should have best two fingers by comparing score of all the fingers</t>
+  </si>
+  <si>
+    <t>Resident Service_Best two Fingers_04</t>
+  </si>
+  <si>
+    <t>Verify rank for best fingers given based on score</t>
+  </si>
+  <si>
+    <t>Rank for best fingers should be based on score and rank one finger should be first and rank two finger should be second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +117,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,36 +139,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -146,21 +151,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,44 +453,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -487,29 +498,103 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>